--- a/designs/2022-designs.xlsx
+++ b/designs/2022-designs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/amp212_cam_ac_uk/Documents/Sakura/IIA/CX/GA3 Heat Exchangers/GA3-Project/designs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="11_F25DC773A252ABDACC10488E611847AE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCA2E9A4-D145-4EEB-9EC2-2D47D89672BB}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="11_F25DC773A252ABDACC10488E611847AE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E082C4-E969-471D-96A8-0C25CCA3B321}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23" yWindow="593" windowWidth="12526" windowHeight="14377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Year</t>
   </si>
@@ -106,16 +106,13 @@
     <t>F</t>
   </si>
   <si>
-    <t>JPL2018</t>
-  </si>
-  <si>
-    <t>2017B</t>
-  </si>
-  <si>
     <t>Pitch</t>
   </si>
   <si>
-    <t>2019/22</t>
+    <t>across_c</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -433,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -474,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -517,28 +514,112 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>20</v>
+      <c r="A2">
+        <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>236</v>
+      </c>
+      <c r="G2">
+        <v>51</v>
+      </c>
+      <c r="H2">
+        <v>51</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>56</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>39.15</v>
+      </c>
+      <c r="P2">
+        <v>39.15</v>
       </c>
       <c r="Q2">
-        <v>2018</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
+        <v>2022</v>
+      </c>
+      <c r="R2">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>20</v>
+      <c r="A3">
+        <v>2022</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>219</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>17.22</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>52</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>39.5</v>
+      </c>
+      <c r="P3">
+        <v>39.5</v>
+      </c>
       <c r="Q3">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="R3">
         <v>2022</v>
@@ -549,7 +630,49 @@
         <v>2022</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>174</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>46.5</v>
+      </c>
+      <c r="I4">
+        <v>9.75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>60</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>39</v>
+      </c>
+      <c r="P4">
+        <v>39</v>
       </c>
       <c r="Q4">
         <v>2022</v>
@@ -563,7 +686,49 @@
         <v>2022</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>259</v>
+      </c>
+      <c r="G5">
+        <v>53</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>15.36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>52</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>49</v>
+      </c>
+      <c r="P5">
+        <v>49</v>
       </c>
       <c r="Q5">
         <v>2022</v>
@@ -577,7 +742,49 @@
         <v>2022</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>145</v>
+      </c>
+      <c r="G6">
+        <v>53</v>
+      </c>
+      <c r="H6">
+        <v>41</v>
+      </c>
+      <c r="I6">
+        <v>16.3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>62.5</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>40</v>
+      </c>
+      <c r="P6">
+        <v>40</v>
       </c>
       <c r="Q6">
         <v>2022</v>
@@ -591,40 +798,54 @@
         <v>2022</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
         <v>20</v>
       </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>172</v>
+      </c>
+      <c r="G7">
+        <v>58</v>
+      </c>
+      <c r="H7">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>55</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>41.5</v>
+      </c>
+      <c r="P7">
+        <v>21.5</v>
+      </c>
       <c r="Q7">
         <v>2022</v>
       </c>
       <c r="R7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8">
-        <v>2022</v>
-      </c>
-      <c r="R8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9">
-        <v>2022</v>
-      </c>
-      <c r="R9">
         <v>2022</v>
       </c>
     </row>

--- a/designs/2022-designs.xlsx
+++ b/designs/2022-designs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/amp212_cam_ac_uk/Documents/Sakura/IIA/CX/GA3 Heat Exchangers/GA3-Project/designs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/tbt24_cam_ac_uk/Documents/Engineering Tripos/Part IIA/GA3 Project/designs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="11_F25DC773A252ABDACC10488E611847AE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E082C4-E969-471D-96A8-0C25CCA3B321}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="11_F25DC773A252ABDACC10488E611847AE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FD2D826-272D-40DF-9433-2EF2A8AE9D01}"/>
   <bookViews>
-    <workbookView xWindow="-23" yWindow="593" windowWidth="12526" windowHeight="14377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,12 +433,12 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.06640625" bestFit="1" customWidth="1"/>
